--- a/outputFile/outputALLsingles.xlsx
+++ b/outputFile/outputALLsingles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:CV22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,40 +436,495 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>kineticglobal</t>
+          <t>kinetic_global</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>kinetic_chest</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>directness_head</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>density</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>leftwirstke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>rightwristke</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>leftankleke</t>
+          <t>left_wrist_ke</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>rightankleke</t>
+          <t>right_wrist_ke</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>headke</t>
+          <t>left_ankle_ke</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>right_ankle_ke</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>head_ke</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>crouch_density</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>left_leg_density</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>right_leg_density</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>left_hand_density</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>right_hand_density</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>hand_density</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>arto_inferiore</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>gamba</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>coscia</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>coscia_dx</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>coscia_sx</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>gamba_sx</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>gamba_dx</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>braccio_sx</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>braccio_dx</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>avambraccio_sx</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>avambraccio_dx</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>ARIEL_speed_magnitude</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>ARIEL_speed_X_component</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>ARIEL_speed_Y_component</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>ARIEL_speed_Z_component</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>ARIEL_acceleration_magnitude</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>ARIEL_acceleration_X_component</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>ARIEL_acceleration_Y_component</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>ARIEL_acceleration_Z_component</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>ARIEL_jerk_magnitude</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>ARIEL_jerk_X_component</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>ARIEL_jerk_Y_component</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>ARIEL_jerk_Z_component</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>STRN_speed_magnitude</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>STRN_speed_X_component</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>STRN_speed_Y_component</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>STRN_speed_Z_component</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>STRN_acceleration_magnitude</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>STRN_acceleration_X_component</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>STRN_acceleration_Y_component</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>STRN_acceleration_Z_component</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>STRN_jerk_magnitude</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>STRN_jerk_X_component</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>STRN_jerk_Y_component</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>STRN_jerk_Z_component</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>RHEL_speed_magnitude</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>RHEL_speed_X_component</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>RHEL_speed_Y_component</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>RHEL_speed_Z_component</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>RHEL_acceleration_magnitude</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>RHEL_acceleration_X_component</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>RHEL_acceleration_Y_component</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>RHEL_acceleration_Z_component</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>RHEL_jerk_magnitude</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>RHEL_jerk_X_component</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>RHEL_jerk_Y_component</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>RHEL_jerk_Z_component</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>LHEL_speed_magnitude</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>LHEL_speed_X_component</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>LHEL_speed_Y_component</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>LHEL_speed_Z_component</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>LHEL_acceleration_magnitude</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>LHEL_acceleration_X_component</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>LHEL_acceleration_Y_component</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>LHEL_acceleration_Z_component</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>LHEL_jerk_magnitude</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>LHEL_jerk_X_component</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>LHEL_jerk_Y_component</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>LHEL_jerk_Z_component</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>RPLM_speed_magnitude</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>RPLM_speed_X_component</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>RPLM_speed_Y_component</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>RPLM_speed_Z_component</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>RPLM_acceleration_magnitude</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>RPLM_acceleration_X_component</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>RPLM_acceleration_Y_component</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>RPLM_acceleration_Z_component</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>RPLM_jerk_magnitude</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>RPLM_jerk_X_component</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>RPLM_jerk_Y_component</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>RPLM_jerk_Z_component</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>LPLM_speed_magnitude</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>LPLM_speed_X_component</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>LPLM_speed_Y_component</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>LPLM_speed_Z_component</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>LPLM_acceleration_magnitude</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>LPLM_acceleration_X_component</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>LPLM_acceleration_Y_component</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>LPLM_acceleration_Z_component</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>LPLM_jerk_magnitude</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>LPLM_jerk_X_component</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>LPLM_jerk_Y_component</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>LPLM_jerk_Z_component</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
@@ -480,29 +935,6382 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.3111111111111111</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.2162162162162162</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.1621621621621621</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.2926829268292683</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.2926829268292683</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.1621621621621621</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.1463414634146342</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.2051282051282051</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.1621621621621621</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.2162162162162162</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.0975609756097561</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.1621621621621621</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.3414634146341464</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.4186046511627907</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.1621621621621621</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>cora1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.04878048780487804</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2264150943396227</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.3018867924528302</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2456140350877193</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.3389830508474576</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1224489795918367</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2456140350877193</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.4137931034482759</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.163265306122449</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.04878048780487804</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.0851063829787234</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.09302325581395347</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.04878048780487804</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.04651162790697674</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.1886792452830189</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.163265306122449</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.09302325581395347</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.09302325581395347</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.2448979591836735</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.09302325581395347</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.04651162790697674</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.1276595744680851</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.04651162790697674</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.2448979591836735</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.1702127659574468</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.04651162790697674</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.1777777777777778</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.2553191489361702</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>cora4_05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2608695652173912</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2608695652173912</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.2608695652173912</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.2608695652173912</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>cora4_08</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5714285714285713</v>
+      </c>
+      <c r="C5" t="n">
         <v>0.3684210526315789</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D5" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1290322580645162</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3414634146341464</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.3555555555555556</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.2439024390243903</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2285714285714286</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.4444444444444445</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.5945945945945946</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.3243243243243243</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.2758620689655172</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.4444444444444445</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.4374999999999999</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.2758620689655172</v>
+      </c>
+      <c r="AP5" t="n">
         <v>0.4864864864864865</v>
       </c>
-      <c r="D2" t="n">
+      <c r="AQ5" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.5142857142857143</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.2758620689655172</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.3783783783783783</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.2777777777777777</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.1290322580645162</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0.2162162162162162</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0.07407407407407408</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0.3783783783783783</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.2758620689655172</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0.372093023255814</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.3750000000000001</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0.3783783783783783</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.2285714285714286</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0.3750000000000001</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.4651162790697674</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.3783783783783783</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.4651162790697674</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.5405405405405405</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0.3243243243243243</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+      <c r="CQ5" t="n">
         <v>0.5128205128205129</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.5116279069767442</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="CR5" t="n">
+        <v>0.4864864864864865</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>cora5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="P6" t="n">
         <v>0.3243243243243243</v>
       </c>
-      <c r="G2" t="n">
+      <c r="Q6" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.06896551724137932</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.2142857142857142</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0.2758620689655173</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0.06896551724137932</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.06896551724137932</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>cora14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1212121212121212</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.206896551724138</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3448275862068965</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.4186046511627907</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2424242424242425</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.2926829268292683</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.3783783783783783</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.2702702702702702</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.2702702702702702</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.3720930232558139</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.4651162790697674</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.2702702702702702</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.3157894736842106</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.2758620689655172</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.206896551724138</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0.206896551724138</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0.206896551724138</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t>marianne7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2285714285714286</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.3243243243243243</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.3783783783783783</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="Y8" t="n">
         <v>0.358974358974359</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.5405405405405405</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>cora05</t>
+      <c r="Z8" t="n">
+        <v>0.4186046511627907</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="CV8" t="inlineStr">
+        <is>
+          <t>marianne8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4864864864864865</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.4102564102564103</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.1212121212121212</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.2424242424242425</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.3225806451612904</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.3225806451612904</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.2424242424242425</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CV9" t="inlineStr">
+        <is>
+          <t>marianne10</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.1714285714285715</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.06666666666666668</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.06666666666666668</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.1212121212121212</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="CV10" t="inlineStr">
+        <is>
+          <t>marianne18</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4262295081967213</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1224489795918367</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.07999999999999999</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.08333333333333334</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3728813559322034</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.3548387096774193</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.4262295081967213</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.1886792452830189</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.3157894736842106</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.2181818181818182</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.2264150943396227</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.2545454545454545</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.360655737704918</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.3389830508474576</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.08333333333333334</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.1509433962264151</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.08333333333333334</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.0816326530612245</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.1886792452830189</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.08333333333333334</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.1886792452830189</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.1224489795918367</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.08333333333333334</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.1224489795918367</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.0816326530612245</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.1224489795918367</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0.0816326530612245</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0.2545454545454545</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0.1886792452830189</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0.1509433962264151</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0.07999999999999999</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0.1509433962264151</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0.1224489795918367</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0.2181818181818182</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0.07999999999999999</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0.2264150943396227</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0.0816326530612245</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0.0816326530612245</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0.1851851851851851</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>0.1224489795918367</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>0.310344827586207</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="CV11" t="inlineStr">
+        <is>
+          <t>marianne19</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2424242424242425</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.2285714285714286</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.3404255319148936</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.3255813953488372</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.2641509433962264</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.3555555555555555</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.4680851063829787</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.2162162162162162</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0.3428571428571428</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0.3414634146341463</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0.2580645161290322</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0.4210526315789474</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0.1621621621621621</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0.2790697674418604</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0.2702702702702702</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV12" t="inlineStr">
+        <is>
+          <t>marianne24</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.3448275862068965</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.206896551724138</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CV13" t="inlineStr">
+        <is>
+          <t>marianne26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.4545454545454546</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.3571428571428571</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0.1818181818181819</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0.09523809523809525</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0.5454545454545455</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0.1333333333333334</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0.2727272727272728</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>0.4545454545454546</v>
+      </c>
+      <c r="CV14" t="inlineStr">
+        <is>
+          <t>marianne41</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.09523809523809525</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.2051282051282051</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.2051282051282051</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.2222222222222223</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.2285714285714286</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.3703703703703704</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.09090909090909093</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.08333333333333334</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0.1052631578947369</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0.1052631578947369</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0.09523809523809525</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV15" t="inlineStr">
+        <is>
+          <t>marianne42</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4594594594594594</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1132075471698113</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3243243243243243</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3658536585365854</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3947368421052632</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3823529411764706</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.2258064516129032</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.3947368421052632</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3855421686746988</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.3058823529411764</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.4047619047619048</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.4418604651162791</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.4835164835164835</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.4337349397590362</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.07272727272727274</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.4166666666666666</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.4719101123595505</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.3820224719101123</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.4347826086956522</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.2181818181818182</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.3661971830985916</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.2686567164179105</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.09302325581395347</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.3728813559322034</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.4057971014492754</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.417910447761194</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.3103448275862069</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.3947368421052632</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.3013698630136986</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.2264150943396227</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.2622950819672131</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.3174603174603174</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0.2950819672131147</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.3103448275862069</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0.3492063492063491</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0.4137931034482759</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0.1886792452830189</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0.2424242424242425</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0.3793103448275862</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0.360655737704918</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0.2264150943396227</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0.2264150943396227</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0.3768115942028986</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0.2686567164179105</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0.4776119402985075</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0.3278688524590163</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0.1777777777777778</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0.318840579710145</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0.2622950819672131</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0.3278688524590163</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0.3050847457627119</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>0.3278688524590163</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>0.4285714285714287</v>
+      </c>
+      <c r="CV16" t="inlineStr">
+        <is>
+          <t>marianne43</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CV17" t="inlineStr">
+        <is>
+          <t>marianne47</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.3478260869565218</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0.3478260869565218</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>0.4347826086956522</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV18" t="inlineStr">
+        <is>
+          <t>marianne48</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.05405405405405405</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1860465116279069</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1860465116279069</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.1463414634146341</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3749999999999999</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.3555555555555555</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.2978723404255319</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.4705882352941175</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.4444444444444445</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.4782608695652174</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.3396226415094339</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.4230769230769231</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.4528301886792453</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.4727272727272728</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.09756097560975609</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.05555555555555556</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.05555555555555556</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.1025641025641026</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.05555555555555556</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.1904761904761904</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.05555555555555556</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.05405405405405405</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.05555555555555556</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.2727272727272728</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.1904761904761904</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.09999999999999999</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0.05555555555555556</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0.05405405405405405</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0.05405405405405405</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0.4166666666666666</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0.2790697674418604</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0.1860465116279069</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0.05555555555555556</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>0.1025641025641026</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0.1463414634146341</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0.05555555555555556</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>0.05405405405405405</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0.05555555555555556</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0.1025641025641026</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0.05555555555555556</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0.2727272727272728</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV19" t="inlineStr">
+        <is>
+          <t>muriel18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.04819277108433735</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1234567901234568</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2452830188679245</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3214285714285714</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.4521739130434783</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.02469135802469136</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.1443298969072165</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.3392857142857142</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.4173913043478261</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.4786324786324787</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.3392857142857142</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.3050847457627119</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.3559322033898305</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.1411764705882353</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.1219512195121951</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.02597402597402598</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.02531645569620253</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.02597402597402598</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0.02531645569620253</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0.1012658227848101</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0.1204819277108434</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0.07228915662650602</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>0.1190476190476191</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0.09302325581395349</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0.02531645569620253</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0.2142857142857142</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0.2093023255813954</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0.02469135802469136</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>0.1265822784810127</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0.05128205128205127</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0.1395348837209302</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0.1839080459770115</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>0.1647058823529412</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0.1219512195121951</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV20" t="inlineStr">
+        <is>
+          <t>muriel26</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.07317073170731708</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1609195402298851</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.09638554216867469</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1395348837209303</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.04819277108433734</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.07317073170731708</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.2197802197802198</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.1758241758241758</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.1956521739130435</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.1609195402298851</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.2474226804123711</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.2045454545454546</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.1162790697674419</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.2553191489361702</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.2045454545454546</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.1190476190476191</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.02469135802469136</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.09638554216867469</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.09638554216867469</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0.02469135802469136</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0.1190476190476191</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0.04878048780487804</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0.1590909090909091</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0.07228915662650602</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0.04878048780487804</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0.04938271604938272</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0.09411764705882351</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>0.04878048780487804</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0.07317073170731708</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0.09638554216867469</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0.04938271604938272</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>0.04938271604938272</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0.02469135802469136</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0.07317073170731708</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>0.2022471910112359</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0.2022471910112359</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0.04938271604938272</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV21" t="inlineStr">
+        <is>
+          <t>muriel27</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3018867924528302</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3018867924528302</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3174603174603174</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.2535211267605634</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.3768115942028986</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.2686567164179104</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.0851063829787234</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.2711864406779661</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.3768115942028986</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.2702702702702702</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.2898550724637681</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.2647058823529412</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.2127659574468085</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.5230769230769231</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.3272727272727273</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.3508771929824561</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.04878048780487804</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.3389830508474576</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.4363636363636363</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.339622641509434</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.4067796610169492</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.3174603174603174</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.2807017543859649</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.3793103448275862</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.2456140350877193</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0.3508771929824561</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0.3793103448275862</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0.3278688524590164</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0.3265306122448979</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0.3492063492063492</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0.163265306122449</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0.3018867924528302</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0.3389830508474576</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>0.3050847457627118</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>0.3278688524590164</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0.1509433962264151</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>0.2909090909090909</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0.1777777777777778</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0.1403508771929824</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0.3235294117647058</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0.3050847457627118</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0.2181818181818182</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>0.0851063829787234</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>0.09756097560975609</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>0.3389830508474576</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>0.3928571428571429</v>
+      </c>
+      <c r="CV22" t="inlineStr">
+        <is>
+          <t>muriel30</t>
         </is>
       </c>
     </row>
